--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bata\dev\excel-maker\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C2EB6E-6BD0-46D1-85CB-E551A901E5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23BF791-5D79-4F94-9C55-3E706DF4C388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="4125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="プロフィール" sheetId="1" r:id="rId1"/>
+    <sheet name="個人" sheetId="1" r:id="rId1"/>
+    <sheet name="会社" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
-  <si>
-    <t>個人プロフィール情報</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+  <si>
+    <t>個人情報</t>
   </si>
   <si>
     <t/>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>建物名・部屋番号</t>
+  </si>
+  <si>
+    <t>会社情報</t>
   </si>
   <si>
     <t>職業</t>
@@ -86,21 +90,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,13 +115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,12 +155,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -505,27 +498,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -533,131 +526,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -665,10 +634,76 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B18" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B15" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>